--- a/swingstats/golfstats.xlsx
+++ b/swingstats/golfstats.xlsx
@@ -5,15 +5,13 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$H$85</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="12">
   <si>
     <t>Club</t>
   </si>
@@ -43,6 +41,12 @@
   </si>
   <si>
     <t>AW</t>
+  </si>
+  <si>
+    <t>9i</t>
+  </si>
+  <si>
+    <t>7i</t>
   </si>
 </sst>
 </file>
@@ -297,10 +301,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
@@ -1406,8 +1407,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1">
-        <v>9.0</v>
+      <c r="A43" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B43" s="2">
         <v>95.1</v>
@@ -1432,8 +1433,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1">
-        <v>9.0</v>
+      <c r="A44" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B44" s="2">
         <v>92.2</v>
@@ -1458,8 +1459,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1">
-        <v>9.0</v>
+      <c r="A45" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B45" s="2">
         <v>96.7</v>
@@ -1484,8 +1485,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1">
-        <v>9.0</v>
+      <c r="A46" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B46" s="2">
         <v>89.5</v>
@@ -1510,8 +1511,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1">
-        <v>9.0</v>
+      <c r="A47" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B47" s="2">
         <v>99.0</v>
@@ -1536,8 +1537,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1">
-        <v>9.0</v>
+      <c r="A48" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B48" s="2">
         <v>95.5</v>
@@ -1562,8 +1563,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1">
-        <v>9.0</v>
+      <c r="A49" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B49" s="2">
         <v>97.3</v>
@@ -1588,8 +1589,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1">
-        <v>9.0</v>
+      <c r="A50" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B50" s="2">
         <v>92.2</v>
@@ -1614,8 +1615,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1">
-        <v>9.0</v>
+      <c r="A51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B51" s="2">
         <v>100.1</v>
@@ -1640,8 +1641,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1">
-        <v>9.0</v>
+      <c r="A52" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B52" s="2">
         <v>98.8</v>
@@ -1666,8 +1667,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1">
-        <v>9.0</v>
+      <c r="A53" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B53" s="2">
         <v>95.2</v>
@@ -1692,8 +1693,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1">
-        <v>9.0</v>
+      <c r="A54" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B54" s="2">
         <v>101.9</v>
@@ -1718,8 +1719,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1">
-        <v>9.0</v>
+      <c r="A55" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B55" s="2">
         <v>87.1</v>
@@ -1744,8 +1745,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1">
-        <v>9.0</v>
+      <c r="A56" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B56" s="2">
         <v>92.9</v>
@@ -1770,8 +1771,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1">
-        <v>9.0</v>
+      <c r="A57" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B57" s="2">
         <v>99.1</v>
@@ -1796,8 +1797,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1">
-        <v>9.0</v>
+      <c r="A58" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B58" s="2">
         <v>96.7</v>
@@ -1822,8 +1823,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1">
-        <v>7.0</v>
+      <c r="A59" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B59" s="1">
         <v>110.3</v>
@@ -1848,8 +1849,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1">
-        <v>7.0</v>
+      <c r="A60" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B60" s="1">
         <v>103.3</v>
@@ -1874,8 +1875,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1">
-        <v>7.0</v>
+      <c r="A61" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B61" s="1">
         <v>109.6</v>
@@ -1900,8 +1901,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1">
-        <v>7.0</v>
+      <c r="A62" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B62" s="1">
         <v>106.4</v>
@@ -1926,8 +1927,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1">
-        <v>7.0</v>
+      <c r="A63" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B63" s="1">
         <v>111.4</v>
@@ -1952,8 +1953,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1">
-        <v>7.0</v>
+      <c r="A64" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B64" s="1">
         <v>104.5</v>
@@ -1978,8 +1979,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1">
-        <v>7.0</v>
+      <c r="A65" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B65" s="1">
         <v>103.3</v>
@@ -2004,8 +2005,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1">
-        <v>7.0</v>
+      <c r="A66" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B66" s="1">
         <v>107.1</v>
@@ -2030,8 +2031,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1">
-        <v>7.0</v>
+      <c r="A67" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B67" s="1">
         <v>96.7</v>
@@ -2056,8 +2057,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1">
-        <v>7.0</v>
+      <c r="A68" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B68" s="1">
         <v>112.5</v>
@@ -2082,8 +2083,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1">
-        <v>7.0</v>
+      <c r="A69" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B69" s="1">
         <v>112.2</v>
@@ -2108,8 +2109,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1">
-        <v>7.0</v>
+      <c r="A70" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B70" s="1">
         <v>103.8</v>
@@ -2134,8 +2135,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1">
-        <v>7.0</v>
+      <c r="A71" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B71" s="1">
         <v>111.4</v>
@@ -2160,8 +2161,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1">
-        <v>7.0</v>
+      <c r="A72" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B72" s="1">
         <v>97.4</v>
@@ -2186,8 +2187,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1">
-        <v>7.0</v>
+      <c r="A73" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B73" s="1">
         <v>99.5</v>
@@ -2212,8 +2213,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1">
-        <v>7.0</v>
+      <c r="A74" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B74" s="1">
         <v>110.1</v>
@@ -2238,8 +2239,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1">
-        <v>7.0</v>
+      <c r="A75" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B75" s="1">
         <v>110.2</v>
@@ -2264,8 +2265,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1">
-        <v>7.0</v>
+      <c r="A76" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B76" s="1">
         <v>111.1</v>
@@ -2290,8 +2291,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1">
-        <v>7.0</v>
+      <c r="A77" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B77" s="1">
         <v>109.3</v>
@@ -2316,8 +2317,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1">
-        <v>7.0</v>
+      <c r="A78" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B78" s="1">
         <v>112.8</v>
@@ -2342,8 +2343,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1">
-        <v>7.0</v>
+      <c r="A79" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B79" s="1">
         <v>108.3</v>
@@ -2368,8 +2369,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1">
-        <v>7.0</v>
+      <c r="A80" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B80" s="1">
         <v>107.6</v>
@@ -2394,8 +2395,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1">
-        <v>7.0</v>
+      <c r="A81" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B81" s="1">
         <v>111.0</v>
@@ -2420,8 +2421,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1">
-        <v>7.0</v>
+      <c r="A82" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B82" s="1">
         <v>105.2</v>
@@ -2446,8 +2447,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1">
-        <v>7.0</v>
+      <c r="A83" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B83" s="1">
         <v>112.1</v>
@@ -2472,8 +2473,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1">
-        <v>7.0</v>
+      <c r="A84" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B84" s="1">
         <v>101.1</v>
@@ -2498,8 +2499,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1">
-        <v>7.0</v>
+      <c r="A85" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B85" s="1">
         <v>98.4</v>
@@ -2524,12 +2525,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$H$85">
-    <sortState ref="A1:H85">
-      <sortCondition descending="1" ref="A1:A85"/>
-      <sortCondition ref="G1:G85"/>
-    </sortState>
-  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>